--- a/src/test/resources/testData/TaskCreationTestData.xlsx
+++ b/src/test/resources/testData/TaskCreationTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCreationData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Sr No</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Create Defect wtith Reopen Status</t>
   </si>
   <si>
-    <t>New Development - Internal WebSite</t>
-  </si>
-  <si>
-    <t>Maintenance work - Client CTX - Tremox XT5</t>
-  </si>
-  <si>
     <t>Change Priority Rate (Hourly rate $25.00)</t>
   </si>
   <si>
@@ -131,13 +125,16 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>projectTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +157,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,13 +192,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,7 +518,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,40 +592,40 @@
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N2" s="5">
         <v>0.05</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -632,40 +636,40 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="N3" s="5">
         <v>0.95</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -676,6 +680,6 @@
     <hyperlink ref="D3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>